--- a/biology/Zoologie/Incubocnus/Incubocnus.xlsx
+++ b/biology/Zoologie/Incubocnus/Incubocnus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Incubocnus est un genre d'holothuries (concombres de mer) de la famille des Cucumariidae. 
 C'est un nomen novum pour Neocnus Cherbonnier, 1972 non Arredondo, 1961. 
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (05 mars 2022)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (05 mars 2022) :
 Incubocnus bimarsupiis (O'Loughlin &amp; O'Hara, 1992)
 Incubocnus incubans (Cherbonnier, 1972)
 </t>
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cherbonnier 1972 : Neocnus incubans, nouveau genre et nouvelle espece d'holothurie dendrochirote incubatrice de Mediterranee. Comptes Rendus de l'Académie des Sciences, Paris, sér. D, vol. 275, no 2, p. 225-227.
 Thandar, A.S. &amp; Vinola, L.W.V. 2017: The current status of Neocnus Arredondo, 1961 (Mammalia: Edentata: Pilosa: Megalonichidae) and a replacement name for its junior homonym in the sea cucumber family Cucumariidae (Echinodermata: Holothuroidea: Dendrochirotida: Cucumariidae). Zootaxa 4337(2): 288–290</t>
